--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value533.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value533.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.147401216638216</v>
+        <v>1.817127704620361</v>
       </c>
       <c r="B1">
-        <v>1.462386177661813</v>
+        <v>2.614512920379639</v>
       </c>
       <c r="C1">
-        <v>1.446839280148768</v>
+        <v>2.834985971450806</v>
       </c>
       <c r="D1">
-        <v>1.691479636212489</v>
+        <v>3.4032883644104</v>
       </c>
       <c r="E1">
-        <v>2.282997270695067</v>
+        <v>0.9723404049873352</v>
       </c>
     </row>
   </sheetData>
